--- a/data_clean/seized_by_drug.xlsx
+++ b/data_clean/seized_by_drug.xlsx
@@ -355,2192 +355,3162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>drug</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>month_num</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date_stata</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B2">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>18898.05544034752</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E2" s="2">
         <v>43556</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>201904</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B3">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>260.9430759551342</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E3" s="2">
         <v>43556</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>201904</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B4">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>10119.03137364671</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E4" s="2">
         <v>43678</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>201908</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B5">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>305.8565297594489</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E5" s="2">
         <v>43678</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>201908</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B6">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C6">
         <v>32572.10888333517</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E6" s="2">
         <v>43800</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>201912</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B7">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C7">
         <v>79.86904457099401</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2">
         <v>43800</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>201912</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B8">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C8">
         <v>41747.722652103</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E8" s="2">
         <v>43497</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>201902</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B9">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C9">
         <v>220.0447156107352</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E9" s="2">
         <v>43497</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>201902</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B10">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C10">
         <v>15074.81131545014</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E10" s="2">
         <v>43466</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>201901</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B11">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C11">
         <v>418.7869849460536</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E11" s="2">
         <v>43466</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>201901</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B12">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C12">
         <v>35399.25953725341</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E12" s="2">
         <v>43647</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>201907</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B13">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C13">
         <v>156.3516629779736</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E13" s="2">
         <v>43647</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>201907</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B14">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C14">
         <v>71726.89943112932</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E14" s="2">
         <v>43617</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>201906</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B15">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C15">
         <v>308.959134753672</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E15" s="2">
         <v>43617</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>201906</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B16">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C16">
         <v>16042.11961847084</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E16" s="2">
         <v>43525</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>201903</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B17">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C17">
         <v>268.078029069031</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E17" s="2">
         <v>43525</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>201903</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B18">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C18">
         <v>30917.09776381224</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E18" s="2">
         <v>43586</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>201905</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B19">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C19">
         <v>413.7864887785861</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E19" s="2">
         <v>43586</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>201905</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B20">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C20">
         <v>23051.33710302022</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E20" s="2">
         <v>43770</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>201911</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B21">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C21">
         <v>157.7209921138192</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E21" s="2">
         <v>43770</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>201911</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B22">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C22">
         <v>28698.08462978915</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E22" s="2">
         <v>43739</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>201910</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B23">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C23">
         <v>396.249642375928</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E23" s="2">
         <v>43739</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>201910</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B24">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C24">
         <v>11725.41196032491</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E24" s="2">
         <v>43709</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>201909</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B25">
+      <c r="A25">
+        <v>2019</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C25">
         <v>205.9611237236698</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E25" s="2">
         <v>43709</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>201909</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B26">
+      <c r="A26">
+        <v>2020</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C26">
         <v>10026.57834732379</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E26" s="2">
         <v>43922</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>202004</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B27">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C27">
         <v>307.8165285699486</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E27" s="2">
         <v>43922</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>202004</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B28">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C28">
         <v>13321.50727169317</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E28" s="2">
         <v>44044</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>202008</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B29">
+      <c r="A29">
+        <v>2020</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C29">
         <v>770.6345295784926</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E29" s="2">
         <v>44044</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>202008</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B30">
+      <c r="A30">
+        <v>2020</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C30">
         <v>9452.454525650295</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E30" s="2">
         <v>44166</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>202012</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B31">
+      <c r="A31">
+        <v>2020</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C31">
         <v>117.3613850167636</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E31" s="2">
         <v>44166</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>202012</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B32">
+      <c r="A32">
+        <v>2020</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C32">
         <v>18069.28626361031</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E32" s="2">
         <v>43862</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>202002</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B33">
+      <c r="A33">
+        <v>2020</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C33">
         <v>292.3638752619656</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E33" s="2">
         <v>43862</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>202002</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B34">
+      <c r="A34">
+        <v>2020</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C34">
         <v>12519.22450819733</v>
       </c>
-      <c r="C34" s="2">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E34" s="2">
         <v>43831</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>202001</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B35">
+      <c r="A35">
+        <v>2020</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C35">
         <v>162.8431321271892</v>
       </c>
-      <c r="C35" s="2">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E35" s="2">
         <v>43831</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>202001</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B36">
+      <c r="A36">
+        <v>2020</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C36">
         <v>25117.39552716842</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E36" s="2">
         <v>44013</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>202007</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B37">
+      <c r="A37">
+        <v>2020</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C37">
         <v>799.5693829696162</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E37" s="2">
         <v>44013</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>202007</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B38">
+      <c r="A38">
+        <v>2020</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C38">
         <v>5607.407954258165</v>
       </c>
-      <c r="C38" s="2">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E38" s="2">
         <v>43983</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>202006</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B39">
+      <c r="A39">
+        <v>2020</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C39">
         <v>752.303866168023</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E39" s="2">
         <v>43983</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>202006</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B40">
+      <c r="A40">
+        <v>2020</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C40">
         <v>9894.959389050331</v>
       </c>
-      <c r="C40" s="2">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E40" s="2">
         <v>43891</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>202003</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B41">
+      <c r="A41">
+        <v>2020</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C41">
         <v>281.9679742743118</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E41" s="2">
         <v>43891</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>202003</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B42">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C42">
         <v>3090.155491339955</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E42" s="2">
         <v>43952</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>202005</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B43">
+      <c r="A43">
+        <v>2020</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C43">
         <v>288.8891712593374</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E43" s="2">
         <v>43952</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>202005</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B44">
+      <c r="A44">
+        <v>2020</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C44">
         <v>25488.84471085845</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E44" s="2">
         <v>44136</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>202011</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B45">
+      <c r="A45">
+        <v>2020</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C45">
         <v>320.7024537776092</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E45" s="2">
         <v>44136</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>202011</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B46">
+      <c r="A46">
+        <v>2020</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C46">
         <v>23463.47914247487</v>
       </c>
-      <c r="C46" s="2">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E46" s="2">
         <v>44105</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>202010</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B47">
+      <c r="A47">
+        <v>2020</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C47">
         <v>469.2872372950842</v>
       </c>
-      <c r="C47" s="2">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E47" s="2">
         <v>44105</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>202010</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B48">
+      <c r="A48">
+        <v>2020</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C48">
         <v>17431.51394775338</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E48" s="2">
         <v>44075</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>202009</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B49">
+      <c r="A49">
+        <v>2020</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C49">
         <v>785.640979317412</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E49" s="2">
         <v>44075</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>202009</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B50">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C50">
         <v>25912.4783011449</v>
       </c>
-      <c r="C50" s="2">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E50" s="2">
         <v>44287</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>202104</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B51">
+      <c r="A51">
+        <v>2021</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C51">
         <v>893.591292272963</v>
       </c>
-      <c r="C51" s="2">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E51" s="2">
         <v>44287</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>202104</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B52">
+      <c r="A52">
+        <v>2021</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C52">
         <v>28016.90017855591</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E52" s="2">
         <v>44409</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>202108</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B53">
+      <c r="A53">
+        <v>2021</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C53">
         <v>1232.618625526779</v>
       </c>
-      <c r="C53" s="2">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E53" s="2">
         <v>44409</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>202108</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B54">
+      <c r="A54">
+        <v>2021</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C54">
         <v>19674.32009629991</v>
       </c>
-      <c r="C54" s="2">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E54" s="2">
         <v>44531</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>202112</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B55">
+      <c r="A55">
+        <v>2021</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C55">
         <v>1268.265911914992</v>
       </c>
-      <c r="C55" s="2">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E55" s="2">
         <v>44531</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>202112</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B56">
+      <c r="A56">
+        <v>2021</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C56">
         <v>18045.87465220008</v>
       </c>
-      <c r="C56" s="2">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E56" s="2">
         <v>44228</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>202102</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B57">
+      <c r="A57">
+        <v>2021</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C57">
         <v>845.4226949721668</v>
       </c>
-      <c r="C57" s="2">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E57" s="2">
         <v>44228</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>202102</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B58">
+      <c r="A58">
+        <v>2021</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C58">
         <v>34304.50472163662</v>
       </c>
-      <c r="C58" s="2">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E58" s="2">
         <v>44197</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>202101</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B59">
+      <c r="A59">
+        <v>2021</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C59">
         <v>945.5464044962648</v>
       </c>
-      <c r="C59" s="2">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E59" s="2">
         <v>44197</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>202101</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B60">
+      <c r="A60">
+        <v>2021</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C60">
         <v>46024.05393127433</v>
       </c>
-      <c r="C60" s="2">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E60" s="2">
         <v>44378</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>202107</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B61">
+      <c r="A61">
+        <v>2021</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C61">
         <v>907.5243221258916</v>
       </c>
-      <c r="C61" s="2">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E61" s="2">
         <v>44378</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>202107</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B62">
+      <c r="A62">
+        <v>2021</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C62">
         <v>22812.07651662699</v>
       </c>
-      <c r="C62" s="2">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E62" s="2">
         <v>44348</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>202106</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B63">
+      <c r="A63">
+        <v>2021</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C63">
         <v>1064.279905638225</v>
       </c>
-      <c r="C63" s="2">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E63" s="2">
         <v>44348</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>202106</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B64">
+      <c r="A64">
+        <v>2021</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C64">
         <v>33981.51788357103</v>
       </c>
-      <c r="C64" s="2">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E64" s="2">
         <v>44256</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>202103</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B65">
+      <c r="A65">
+        <v>2021</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C65">
         <v>867.4719947984188</v>
       </c>
-      <c r="C65" s="2">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E65" s="2">
         <v>44256</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>202103</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B66">
+      <c r="A66">
+        <v>2021</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C66">
         <v>10698.84434444059</v>
       </c>
-      <c r="C66" s="2">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E66" s="2">
         <v>44317</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>202105</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B67">
+      <c r="A67">
+        <v>2021</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C67">
         <v>1085.135540733836</v>
       </c>
-      <c r="C67" s="2">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E67" s="2">
         <v>44317</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>202105</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B68">
+      <c r="A68">
+        <v>2021</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C68">
         <v>26972.72805862431</v>
       </c>
-      <c r="C68" s="2">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E68" s="2">
         <v>44501</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>202111</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B69">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C69">
         <v>834.9933446704251</v>
       </c>
-      <c r="C69" s="2">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E69" s="2">
         <v>44501</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>202111</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B70">
+      <c r="A70">
+        <v>2021</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C70">
         <v>31554.7055733719</v>
       </c>
-      <c r="C70" s="2">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E70" s="2">
         <v>44470</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>202110</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B71">
+      <c r="A71">
+        <v>2021</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C71">
         <v>1263.010900548461</v>
       </c>
-      <c r="C71" s="2">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E71" s="2">
         <v>44470</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>202110</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B72">
+      <c r="A72">
+        <v>2021</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C72">
         <v>27043.20404491011</v>
       </c>
-      <c r="C72" s="2">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E72" s="2">
         <v>44440</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>202109</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B73">
+      <c r="A73">
+        <v>2021</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C73">
         <v>779.2832037209332</v>
       </c>
-      <c r="C73" s="2">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E73" s="2">
         <v>44440</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>202109</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B74">
+      <c r="A74">
+        <v>2022</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C74">
         <v>18733.1699836078</v>
       </c>
-      <c r="C74" s="2">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E74" s="2">
         <v>44652</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>202204</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B75">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C75">
         <v>1457.719958865256</v>
       </c>
-      <c r="C75" s="2">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E75" s="2">
         <v>44652</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>202204</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B76">
+      <c r="A76">
+        <v>2022</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C76">
         <v>31991.27354655516</v>
       </c>
-      <c r="C76" s="2">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E76" s="2">
         <v>44774</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>202208</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B77">
+      <c r="A77">
+        <v>2022</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C77">
         <v>2342.161531285645</v>
       </c>
-      <c r="C77" s="2">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E77" s="2">
         <v>44774</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>202208</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B78">
+      <c r="A78">
+        <v>2022</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C78">
         <v>9909.662271891859</v>
       </c>
-      <c r="C78" s="2">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E78" s="2">
         <v>44896</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>202212</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B79">
+      <c r="A79">
+        <v>2022</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C79">
         <v>564.4674882768036</v>
       </c>
-      <c r="C79" s="2">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E79" s="2">
         <v>44896</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>202212</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B80">
+      <c r="A80">
+        <v>2022</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C80">
         <v>27200.88899024538</v>
       </c>
-      <c r="C80" s="2">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E80" s="2">
         <v>44593</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>202202</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B81">
+      <c r="A81">
+        <v>2022</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C81">
         <v>752.6685633786221</v>
       </c>
-      <c r="C81" s="2">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E81" s="2">
         <v>44593</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>202202</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B82">
+      <c r="A82">
+        <v>2022</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C82">
         <v>22474.43922250648</v>
       </c>
-      <c r="C82" s="2">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E82" s="2">
         <v>44562</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>202201</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B83">
+      <c r="A83">
+        <v>2022</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C83">
         <v>1141.167812567789</v>
       </c>
-      <c r="C83" s="2">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E83" s="2">
         <v>44562</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>202201</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B84">
+      <c r="A84">
+        <v>2022</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C84">
         <v>12666.75329136167</v>
       </c>
-      <c r="C84" s="2">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E84" s="2">
         <v>44743</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>202207</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B85">
+      <c r="A85">
+        <v>2022</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C85">
         <v>2246.359703010678</v>
       </c>
-      <c r="C85" s="2">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E85" s="2">
         <v>44743</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>202207</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B86">
+      <c r="A86">
+        <v>2022</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C86">
         <v>22367.0891984544</v>
       </c>
-      <c r="C86" s="2">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E86" s="2">
         <v>44713</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>202206</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B87">
+      <c r="A87">
+        <v>2022</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C87">
         <v>745.7864243104416</v>
       </c>
-      <c r="C87" s="2">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E87" s="2">
         <v>44713</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>202206</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B88">
+      <c r="A88">
+        <v>2022</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C88">
         <v>38419.32401008159</v>
       </c>
-      <c r="C88" s="2">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E88" s="2">
         <v>44621</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>202203</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B89">
+      <c r="A89">
+        <v>2022</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C89">
         <v>1283.239004313591</v>
       </c>
-      <c r="C89" s="2">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E89" s="2">
         <v>44621</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>202203</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B90">
+      <c r="A90">
+        <v>2022</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C90">
         <v>10673.89019689579</v>
       </c>
-      <c r="C90" s="2">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E90" s="2">
         <v>44682</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>202205</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B91">
+      <c r="A91">
+        <v>2022</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C91">
         <v>1111.912675865874</v>
       </c>
-      <c r="C91" s="2">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E91" s="2">
         <v>44682</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>202205</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B92">
+      <c r="A92">
+        <v>2022</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C92">
         <v>29263.24933619247</v>
       </c>
-      <c r="C92" s="2">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E92" s="2">
         <v>44866</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>202211</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B93">
+      <c r="A93">
+        <v>2022</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C93">
         <v>1269.80914058848</v>
       </c>
-      <c r="C93" s="2">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E93" s="2">
         <v>44866</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>202211</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B94">
+      <c r="A94">
+        <v>2022</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C94">
         <v>18095.769186182</v>
       </c>
-      <c r="C94" s="2">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E94" s="2">
         <v>44835</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>202210</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B95">
+      <c r="A95">
+        <v>2022</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C95">
         <v>1092.290482552834</v>
       </c>
-      <c r="C95" s="2">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E95" s="2">
         <v>44835</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>202210</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B96">
+      <c r="A96">
+        <v>2022</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C96">
         <v>9792.070800016711</v>
       </c>
-      <c r="C96" s="2">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E96" s="2">
         <v>44805</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>202209</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B97">
+      <c r="A97">
+        <v>2022</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C97">
         <v>2017.756049390551</v>
       </c>
-      <c r="C97" s="2">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E97" s="2">
         <v>44805</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>202209</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B98">
+      <c r="A98">
+        <v>2023</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C98">
         <v>11323.97519649436</v>
       </c>
-      <c r="C98" s="2">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E98" s="2">
         <v>45017</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>202304</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B99">
+      <c r="A99">
+        <v>2023</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C99">
         <v>3340.89629335873</v>
       </c>
-      <c r="C99" s="2">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E99" s="2">
         <v>45017</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>202304</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B100">
+      <c r="A100">
+        <v>2023</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C100">
         <v>27930.51438785438</v>
       </c>
-      <c r="C100" s="2">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E100" s="2">
         <v>45139</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>202308</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B101">
+      <c r="A101">
+        <v>2023</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C101">
         <v>1849.336595743091</v>
       </c>
-      <c r="C101" s="2">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E101" s="2">
         <v>45139</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>202308</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B102">
+      <c r="A102">
+        <v>2023</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C102">
         <v>26908.86990722729</v>
       </c>
-      <c r="C102" s="2">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E102" s="2">
         <v>45261</v>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>202312</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B103">
+      <c r="A103">
+        <v>2023</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C103">
         <v>2502.867469461485</v>
       </c>
-      <c r="C103" s="2">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E103" s="2">
         <v>45261</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>202312</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B104">
+      <c r="A104">
+        <v>2023</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C104">
         <v>40336.9124653845</v>
       </c>
-      <c r="C104" s="2">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E104" s="2">
         <v>44958</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>202302</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B105">
+      <c r="A105">
+        <v>2023</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C105">
         <v>2325.837218101106</v>
       </c>
-      <c r="C105" s="2">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="E105" s="2">
         <v>44958</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>202302</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B106">
+      <c r="A106">
+        <v>2023</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C106">
         <v>11847.73222390624</v>
       </c>
-      <c r="C106" s="2">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E106" s="2">
         <v>44927</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>202301</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B107">
+      <c r="A107">
+        <v>2023</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C107">
         <v>1672.222428503514</v>
       </c>
-      <c r="C107" s="2">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="E107" s="2">
         <v>44927</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>202301</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B108">
+      <c r="A108">
+        <v>2023</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C108">
         <v>15595.52953839848</v>
       </c>
-      <c r="C108" s="2">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E108" s="2">
         <v>45108</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>202307</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B109">
+      <c r="A109">
+        <v>2023</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C109">
         <v>1865.980805115557</v>
       </c>
-      <c r="C109" s="2">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E109" s="2">
         <v>45108</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>202307</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B110">
+      <c r="A110">
+        <v>2023</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C110">
         <v>25820.24911969874</v>
       </c>
-      <c r="C110" s="2">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E110" s="2">
         <v>45078</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>202306</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B111">
+      <c r="A111">
+        <v>2023</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C111">
         <v>2397.918022642049</v>
       </c>
-      <c r="C111" s="2">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="E111" s="2">
         <v>45078</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>202306</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B112">
+      <c r="A112">
+        <v>2023</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C112">
         <v>36740.34444074936</v>
       </c>
-      <c r="C112" s="2">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E112" s="2">
         <v>44986</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>202303</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B113">
+      <c r="A113">
+        <v>2023</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C113">
         <v>2958.676426383904</v>
       </c>
-      <c r="C113" s="2">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E113" s="2">
         <v>44986</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>202303</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B114">
+      <c r="A114">
+        <v>2023</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C114">
         <v>20963.96268470488</v>
       </c>
-      <c r="C114" s="2">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E114" s="2">
         <v>45047</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>202305</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B115">
+      <c r="A115">
+        <v>2023</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C115">
         <v>2804.925575540499</v>
       </c>
-      <c r="C115" s="2">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E115" s="2">
         <v>45047</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>202305</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B116">
+      <c r="A116">
+        <v>2023</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C116">
         <v>32832.01358128134</v>
       </c>
-      <c r="C116" s="2">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E116" s="2">
         <v>45231</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>202311</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B117">
+      <c r="A117">
+        <v>2023</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C117">
         <v>3221.203955080754</v>
       </c>
-      <c r="C117" s="2">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E117" s="2">
         <v>45231</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>202311</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B118">
+      <c r="A118">
+        <v>2023</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C118">
         <v>32419.75873626737</v>
       </c>
-      <c r="C118" s="2">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E118" s="2">
         <v>45200</v>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>202310</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B119">
+      <c r="A119">
+        <v>2023</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C119">
         <v>2065.248082706055</v>
       </c>
-      <c r="C119" s="2">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E119" s="2">
         <v>45200</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>202310</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Cocaine</t>
-        </is>
-      </c>
-      <c r="B120">
+      <c r="A120">
+        <v>2023</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C120">
         <v>14745.86099622991</v>
       </c>
-      <c r="C120" s="2">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E120" s="2">
         <v>45170</v>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>202309</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Fentanyl</t>
-        </is>
-      </c>
-      <c r="B121">
+      <c r="A121">
+        <v>2023</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C121">
         <v>1470.858043067409</v>
       </c>
-      <c r="C121" s="2">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E121" s="2">
         <v>45170</v>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>202309</t>
         </is>
